--- a/daily_tools/vmdk_to_proxmox/xlsxtoini/test.xlsx
+++ b/daily_tools/vmdk_to_proxmox/xlsxtoini/test.xlsx
@@ -39,10 +39,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MAC2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Network2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -60,10 +56,6 @@
   </si>
   <si>
     <t>Network4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>disk1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -136,6 +128,14 @@
   <si>
     <t>auto-make5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC2 ------- 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disk1 -------- 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -165,12 +165,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -200,11 +206,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -511,18 +521,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="28.125" customWidth="1"/>
     <col min="6" max="6" width="23.625" customWidth="1"/>
-    <col min="7" max="7" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="32.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="26.125" customWidth="1"/>
+    <col min="13" max="13" width="21.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
@@ -544,41 +557,41 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>32</v>
@@ -587,18 +600,18 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>50</v>
       </c>
       <c r="N2" s="1"/>
@@ -607,10 +620,10 @@
     </row>
     <row r="3" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>64</v>
@@ -619,18 +632,18 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>50</v>
       </c>
       <c r="N3" s="1"/>
@@ -639,10 +652,10 @@
     </row>
     <row r="4" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>16</v>
@@ -651,18 +664,18 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>50.89</v>
       </c>
       <c r="N4" s="1">
@@ -673,10 +686,10 @@
     </row>
     <row r="5" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>64</v>
@@ -685,22 +698,22 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>50</v>
       </c>
       <c r="N5" s="1"/>
@@ -709,10 +722,10 @@
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>7.9379999999999997</v>
@@ -721,18 +734,18 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>200</v>
       </c>
       <c r="N6" s="1"/>
